--- a/Magnanimity.xlsx
+++ b/Magnanimity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8c18da6094542a7/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\source\C\Magnanimity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{E007EBE2-BDF2-46D6-A8FD-E2C7B2E53F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76AD9F3F-774C-4CCB-B98B-3307DD90E5E8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81A6F1C2-6900-40F5-9A15-422770DB2952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{B3EF3E0D-04BB-4A8C-A97B-DE3E72C2613D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>DIMENSIONS</t>
   </si>
@@ -33,76 +33,160 @@
     <t>idx</t>
   </si>
   <si>
-    <t>serverCnt</t>
-  </si>
-  <si>
-    <t>listenerCnt</t>
-  </si>
-  <si>
-    <t>requestCnt</t>
-  </si>
-  <si>
     <t>(counts)</t>
   </si>
   <si>
     <t>HEARTBEATS</t>
   </si>
   <si>
-    <t>server[1]</t>
-  </si>
-  <si>
-    <t>heartbeat</t>
-  </si>
-  <si>
-    <t>server[n]</t>
-  </si>
-  <si>
-    <t>listener[n]</t>
-  </si>
-  <si>
-    <t>listener[1]</t>
-  </si>
-  <si>
     <t>REQUESTS</t>
   </si>
   <si>
-    <t>MD5-of-Req</t>
-  </si>
-  <si>
-    <t>(Sn)</t>
-  </si>
-  <si>
     <t>(Ln)</t>
   </si>
   <si>
     <t>(Rn)</t>
   </si>
   <si>
-    <t>(implicity::listener[1]</t>
-  </si>
-  <si>
-    <t>Rn</t>
-  </si>
-  <si>
-    <t>(implicity::listener[Ln]</t>
-  </si>
-  <si>
-    <t>server[1&lt;=n&lt;=Sn]</t>
-  </si>
-  <si>
-    <t>Response-TimeSTamp</t>
-  </si>
-  <si>
-    <t>watchdog status &amp; heartbeat</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>5+(2*Sn)</t>
-  </si>
-  <si>
-    <t>5+(2*(Sn+Ln))</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>MD5-of-Req#1</t>
+  </si>
+  <si>
+    <t>MD5-of-Req#N</t>
+  </si>
+  <si>
+    <t>UInt64</t>
+  </si>
+  <si>
+    <t>Hash64</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>TimeStamp</t>
+  </si>
+  <si>
+    <t>heartbeat::Time</t>
+  </si>
+  <si>
+    <t>Int:</t>
+  </si>
+  <si>
+    <t>Hash:</t>
+  </si>
+  <si>
+    <t>requestReservation::Time</t>
+  </si>
+  <si>
+    <t>initialization:Time</t>
+  </si>
+  <si>
+    <t>Response::Time</t>
+  </si>
+  <si>
+    <t>status::Int</t>
+  </si>
+  <si>
+    <t>listener[n]::Hash</t>
+  </si>
+  <si>
+    <t>listener[1]:hash</t>
+  </si>
+  <si>
+    <t>status:Int</t>
+  </si>
+  <si>
+    <t>requestCnt::Int</t>
+  </si>
+  <si>
+    <t>listenerCnt::Int</t>
+  </si>
+  <si>
+    <t>reservationAcknowledgement::Time</t>
+  </si>
+  <si>
+    <t>KEY:</t>
+  </si>
+  <si>
+    <t>Time:</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>8+(4*(Ln-1))</t>
+  </si>
+  <si>
+    <t>8+(4*Ln)</t>
+  </si>
+  <si>
+    <t>8+(4*Ln)+(3*(Rn-1))</t>
+  </si>
+  <si>
+    <t>To make a request:</t>
+  </si>
+  <si>
+    <t>1) Listener updates its requestReservationTime</t>
+  </si>
+  <si>
+    <t>Listener[x]::Hash</t>
+  </si>
+  <si>
+    <t>4) Listener finds slot identified for its usage</t>
+  </si>
+  <si>
+    <t>5) Listener writes request where server can see it</t>
+  </si>
+  <si>
+    <t>6) Listener does MD5 hash of request and updates its slot</t>
+  </si>
+  <si>
+    <t>7) Server writes the response where the listeners can see it</t>
+  </si>
+  <si>
+    <t>8) Server updates its request slot with the response time</t>
+  </si>
+  <si>
+    <t>9) Client sees the response time and reads the request</t>
+  </si>
+  <si>
+    <t>3) Watchdog Identifies an available slot with a listener hash</t>
+  </si>
+  <si>
+    <t>10) Watchdog looks for listener heartbeats that are greater than the request time</t>
+  </si>
+  <si>
+    <t>6) Server sees a request slot, reads the request, and services it</t>
+  </si>
+  <si>
+    <t>(watchdog status &amp; heartbeat)</t>
+  </si>
+  <si>
+    <t>(server status &amp; heartbeat)</t>
+  </si>
+  <si>
+    <t>(request status, request, and timesrtamp of completion)</t>
+  </si>
+  <si>
+    <t>2) Watchdog looks for an available request slot **</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> **(where listener heartbeats all exceed the response time by at least 1/2 second)</t>
   </si>
 </sst>
 </file>
@@ -132,7 +216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,8 +241,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -166,26 +256,167 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,238 +732,335 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C4B975-FDC4-4477-8D3E-B30E34563BE1}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.89453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1015625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.47265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1015625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.734375" customWidth="1"/>
-    <col min="6" max="6" width="18.734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.68359375" customWidth="1"/>
-    <col min="8" max="8" width="2.734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71" style="7" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="9">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="E10" s="28"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="2"/>
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E15" s="28"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E16" s="28"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="E17" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="9">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="9">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="C20" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>18</v>
+      <c r="E20" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="E21" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E22" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E23" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E24" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E25" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E26" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E27" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E28" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E30" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>